--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl11-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl11-Cxcr3.xlsx
@@ -531,22 +531,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>3.498267</v>
+        <v>0.738254</v>
       </c>
       <c r="H2">
-        <v>10.494801</v>
+        <v>2.214762</v>
       </c>
       <c r="I2">
-        <v>0.02652289550929144</v>
+        <v>0.005691320045803731</v>
       </c>
       <c r="J2">
-        <v>0.02652289550929144</v>
+        <v>0.005691320045803731</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,22 +561,22 @@
         <v>0.155824</v>
       </c>
       <c r="O2">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="P2">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="Q2">
-        <v>0.181704652336</v>
+        <v>0.03834589709866666</v>
       </c>
       <c r="R2">
-        <v>1.635341871024</v>
+        <v>0.3451130738879999</v>
       </c>
       <c r="S2">
-        <v>0.001004911285842245</v>
+        <v>0.0001578213228634493</v>
       </c>
       <c r="T2">
-        <v>0.001004911285842245</v>
+        <v>0.0001578213228634493</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3.498267</v>
+        <v>0.738254</v>
       </c>
       <c r="H3">
-        <v>10.494801</v>
+        <v>2.214762</v>
       </c>
       <c r="I3">
-        <v>0.02652289550929144</v>
+        <v>0.005691320045803731</v>
       </c>
       <c r="J3">
-        <v>0.02652289550929144</v>
+        <v>0.005691320045803731</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.318960333333333</v>
+        <v>1.821156333333333</v>
       </c>
       <c r="N3">
-        <v>3.956881</v>
+        <v>5.463469</v>
       </c>
       <c r="O3">
-        <v>0.962111554317657</v>
+        <v>0.9722698211323025</v>
       </c>
       <c r="P3">
-        <v>0.9621115543176572</v>
+        <v>0.9722698211323026</v>
       </c>
       <c r="Q3">
-        <v>4.614075408409</v>
+        <v>1.344475947708667</v>
       </c>
       <c r="R3">
-        <v>41.526678675681</v>
+        <v>12.100283529378</v>
       </c>
       <c r="S3">
-        <v>0.02551798422344919</v>
+        <v>0.005533498722940282</v>
       </c>
       <c r="T3">
-        <v>0.0255179842234492</v>
+        <v>0.005533498722940282</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>367.374267</v>
       </c>
       <c r="I4">
-        <v>0.9284434546632694</v>
+        <v>0.9440493064670392</v>
       </c>
       <c r="J4">
-        <v>0.9284434546632696</v>
+        <v>0.9440493064670391</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,22 +685,22 @@
         <v>0.155824</v>
       </c>
       <c r="O4">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="P4">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="Q4">
-        <v>6.360636420111999</v>
+        <v>6.360636420112001</v>
       </c>
       <c r="R4">
-        <v>57.24572778100799</v>
+        <v>57.245727781008</v>
       </c>
       <c r="S4">
-        <v>0.03517727940113606</v>
+        <v>0.02617865612825669</v>
       </c>
       <c r="T4">
-        <v>0.03517727940113607</v>
+        <v>0.02617865612825668</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>367.374267</v>
       </c>
       <c r="I5">
-        <v>0.9284434546632694</v>
+        <v>0.9440493064670392</v>
       </c>
       <c r="J5">
-        <v>0.9284434546632696</v>
+        <v>0.9440493064670391</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.318960333333333</v>
+        <v>1.821156333333333</v>
       </c>
       <c r="N5">
-        <v>3.956881</v>
+        <v>5.463469</v>
       </c>
       <c r="O5">
-        <v>0.962111554317657</v>
+        <v>0.9722698211323025</v>
       </c>
       <c r="P5">
-        <v>0.9621115543176572</v>
+        <v>0.9722698211323026</v>
       </c>
       <c r="Q5">
-        <v>161.517361886803</v>
+        <v>223.015324350247</v>
       </c>
       <c r="R5">
-        <v>1453.656256981227</v>
+        <v>2007.137919152223</v>
       </c>
       <c r="S5">
-        <v>0.8932661752621333</v>
+        <v>0.9178706503387825</v>
       </c>
       <c r="T5">
-        <v>0.8932661752621336</v>
+        <v>0.9178706503387825</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.465569666666667</v>
+        <v>5.698467</v>
       </c>
       <c r="H6">
-        <v>16.396709</v>
+        <v>17.095401</v>
       </c>
       <c r="I6">
-        <v>0.04143844171063926</v>
+        <v>0.0439304080539368</v>
       </c>
       <c r="J6">
-        <v>0.04143844171063927</v>
+        <v>0.04393040805393679</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,22 +809,22 @@
         <v>0.155824</v>
       </c>
       <c r="O6">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="P6">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="Q6">
-        <v>0.2838889759128889</v>
+        <v>0.295985973936</v>
       </c>
       <c r="R6">
-        <v>2.555000783216</v>
+        <v>2.663873765423999</v>
       </c>
       <c r="S6">
-        <v>0.001570038147914487</v>
+        <v>0.001218198073066602</v>
       </c>
       <c r="T6">
-        <v>0.001570038147914488</v>
+        <v>0.001218198073066602</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.465569666666667</v>
+        <v>5.698467</v>
       </c>
       <c r="H7">
-        <v>16.396709</v>
+        <v>17.095401</v>
       </c>
       <c r="I7">
-        <v>0.04143844171063926</v>
+        <v>0.0439304080539368</v>
       </c>
       <c r="J7">
-        <v>0.04143844171063927</v>
+        <v>0.04393040805393679</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.318960333333333</v>
+        <v>1.821156333333333</v>
       </c>
       <c r="N7">
-        <v>3.956881</v>
+        <v>5.463469</v>
       </c>
       <c r="O7">
-        <v>0.962111554317657</v>
+        <v>0.9722698211323025</v>
       </c>
       <c r="P7">
-        <v>0.9621115543176572</v>
+        <v>0.9722698211323026</v>
       </c>
       <c r="Q7">
-        <v>7.208869589403222</v>
+        <v>10.377799267341</v>
       </c>
       <c r="R7">
-        <v>64.87982630462901</v>
+        <v>93.40019340606899</v>
       </c>
       <c r="S7">
-        <v>0.03986840356272477</v>
+        <v>0.04271220998087019</v>
       </c>
       <c r="T7">
-        <v>0.03986840356272478</v>
+        <v>0.04271220998087019</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4741939999999999</v>
+        <v>0.8209666666666666</v>
       </c>
       <c r="H8">
-        <v>1.422582</v>
+        <v>2.4629</v>
       </c>
       <c r="I8">
-        <v>0.003595208116799817</v>
+        <v>0.006328965433220369</v>
       </c>
       <c r="J8">
-        <v>0.003595208116799817</v>
+        <v>0.006328965433220369</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,22 +933,22 @@
         <v>0.155824</v>
       </c>
       <c r="O8">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="P8">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="Q8">
-        <v>0.02463026861866666</v>
+        <v>0.04264210328888889</v>
       </c>
       <c r="R8">
-        <v>0.221672417568</v>
+        <v>0.3837789295999999</v>
       </c>
       <c r="S8">
-        <v>0.0001362168474500881</v>
+        <v>0.0001755033435106749</v>
       </c>
       <c r="T8">
-        <v>0.0001362168474500881</v>
+        <v>0.0001755033435106749</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4741939999999999</v>
+        <v>0.8209666666666666</v>
       </c>
       <c r="H9">
-        <v>1.422582</v>
+        <v>2.4629</v>
       </c>
       <c r="I9">
-        <v>0.003595208116799817</v>
+        <v>0.006328965433220369</v>
       </c>
       <c r="J9">
-        <v>0.003595208116799817</v>
+        <v>0.006328965433220369</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.318960333333333</v>
+        <v>1.821156333333333</v>
       </c>
       <c r="N9">
-        <v>3.956881</v>
+        <v>5.463469</v>
       </c>
       <c r="O9">
-        <v>0.962111554317657</v>
+        <v>0.9722698211323025</v>
       </c>
       <c r="P9">
-        <v>0.9621115543176572</v>
+        <v>0.9722698211323026</v>
       </c>
       <c r="Q9">
-        <v>0.6254430763046666</v>
+        <v>1.495108644455555</v>
       </c>
       <c r="R9">
-        <v>5.628987686742</v>
+        <v>13.4559778001</v>
       </c>
       <c r="S9">
-        <v>0.003458991269349729</v>
+        <v>0.006153462089709694</v>
       </c>
       <c r="T9">
-        <v>0.003458991269349729</v>
+        <v>0.006153462089709695</v>
       </c>
     </row>
   </sheetData>
